--- a/Test.xlsx
+++ b/Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2374983-1788-43A2-910D-57ACE8332B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3013C13-B810-43E3-909A-61A3063B53D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,37 +345,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>5</v>
+        <v>550</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -386,35 +401,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F17848-CF07-4749-A7D8-326A38A9525C}">
-  <dimension ref="C2:C6"/>
+  <dimension ref="C2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>10</v>
       </c>
